--- a/Energygels.xlsx
+++ b/Energygels.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="356">
   <si>
     <t>Glucose</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Apple </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maltodextrin </t>
   </si>
   <si>
     <t>60 mL</t>
@@ -2358,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2387,37 +2384,37 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
@@ -2432,7 +2429,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>2</v>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -2501,10 +2498,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -2547,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2">
         <v>120</v>
@@ -2599,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -2651,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -2703,7 +2700,7 @@
         <v>75</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -2711,7 +2708,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -2726,7 +2723,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2748,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -2756,13 +2753,13 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>81</v>
@@ -2771,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2799,13 +2796,13 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>81</v>
@@ -2814,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2842,13 +2839,13 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>81</v>
@@ -2857,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2887,13 +2884,13 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>180</v>
@@ -2941,13 +2938,13 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
         <v>180</v>
@@ -2995,13 +2992,13 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>180</v>
@@ -3047,16 +3044,16 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="2">
         <v>160</v>
@@ -3104,13 +3101,13 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2">
         <v>160</v>
@@ -3156,13 +3153,13 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
         <v>160</v>
@@ -3210,16 +3207,16 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3">
         <v>123</v>
@@ -3250,17 +3247,17 @@
         <v>75</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -3295,23 +3292,23 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E19" s="2">
         <v>109</v>
@@ -3320,7 +3317,7 @@
         <v>24.4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -3342,22 +3339,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>100</v>
@@ -3366,7 +3363,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -3388,19 +3385,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2">
         <v>100</v>
@@ -3409,7 +3406,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3431,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -3452,7 +3449,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3474,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E23" s="2">
         <v>110</v>
@@ -3498,7 +3495,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H23" s="2">
         <v>9</v>
@@ -3529,19 +3526,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>100</v>
@@ -3550,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H24" s="2">
         <v>9</v>
@@ -3581,19 +3578,19 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2">
         <v>110</v>
@@ -3602,7 +3599,7 @@
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H25" s="2">
         <v>9</v>
@@ -3633,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2">
         <v>110</v>
@@ -3654,7 +3651,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H26" s="2">
         <v>9</v>
@@ -3685,19 +3682,19 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>110</v>
@@ -3706,7 +3703,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H27" s="2">
         <v>9</v>
@@ -3737,19 +3734,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2">
         <v>110</v>
@@ -3758,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H28" s="2">
         <v>9</v>
@@ -3789,22 +3786,22 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2">
         <v>200</v>
@@ -3813,7 +3810,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2">
         <v>2</v>
@@ -3844,22 +3841,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2">
         <v>108</v>
@@ -3890,19 +3887,19 @@
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E31" s="2">
         <v>180</v>
@@ -3911,7 +3908,7 @@
         <v>45</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3933,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2">
         <v>180</v>
@@ -3954,7 +3951,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3976,19 +3973,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2">
         <v>180</v>
@@ -3997,7 +3994,7 @@
         <v>45</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4019,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E34" s="2">
         <v>120</v>
@@ -4043,7 +4040,7 @@
         <v>29.3</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -4074,19 +4071,19 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2">
         <v>120</v>
@@ -4095,7 +4092,7 @@
         <v>29.3</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -4126,19 +4123,19 @@
         <v>50</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2">
         <v>120</v>
@@ -4147,7 +4144,7 @@
         <v>29.3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -4178,19 +4175,19 @@
         <v>75</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2">
         <v>120</v>
@@ -4199,7 +4196,7 @@
         <v>29.3</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -4230,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2">
         <v>120</v>
@@ -4251,7 +4248,7 @@
         <v>29.3</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -4282,22 +4279,22 @@
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E39" s="2">
         <v>100</v>
@@ -4306,7 +4303,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -4337,19 +4334,19 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2">
         <v>100</v>
@@ -4358,7 +4355,7 @@
         <v>25</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -4389,22 +4386,22 @@
         <v>35</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E41" s="2">
         <v>160</v>
@@ -4444,19 +4441,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="2">
         <v>160</v>
@@ -4496,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -4548,22 +4545,22 @@
         <v>100</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S43" s="2"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2">
         <v>110</v>
@@ -4572,7 +4569,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -4594,19 +4591,19 @@
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2">
         <v>110</v>
@@ -4615,7 +4612,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -4637,22 +4634,22 @@
         <v>25</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="2">
         <v>100</v>
@@ -4692,19 +4689,19 @@
         <v>20</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S46" s="2"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2">
         <v>100</v>
@@ -4744,19 +4741,19 @@
         <v>20</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S47" s="2"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2">
         <v>100</v>
@@ -4796,19 +4793,19 @@
         <v>20</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2">
         <v>100</v>
@@ -4848,19 +4845,19 @@
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2">
         <v>100</v>
@@ -4900,19 +4897,19 @@
         <v>40</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S50" s="2"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2">
         <v>100</v>
@@ -4952,19 +4949,19 @@
         <v>20</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2">
         <v>100</v>
@@ -5004,19 +5001,19 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2">
         <v>100</v>
@@ -5056,19 +5053,19 @@
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2">
         <v>100</v>
@@ -5108,19 +5105,19 @@
         <v>40</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2">
         <v>100</v>
@@ -5160,19 +5157,19 @@
         <v>0</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2">
         <v>100</v>
@@ -5212,19 +5209,19 @@
         <v>20</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2">
         <v>100</v>
@@ -5264,19 +5261,19 @@
         <v>20</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2">
         <v>100</v>
@@ -5316,19 +5313,19 @@
         <v>20</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2">
         <v>100</v>
@@ -5368,19 +5365,19 @@
         <v>40</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2">
         <v>100</v>
@@ -5420,19 +5417,19 @@
         <v>40</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2">
         <v>100</v>
@@ -5472,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E62" s="2">
         <v>100</v>
@@ -5515,19 +5512,19 @@
         <v>70</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2">
         <v>100</v>
@@ -5558,19 +5555,19 @@
         <v>35</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2">
         <v>100</v>
@@ -5601,19 +5598,19 @@
         <v>35</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2">
         <v>100</v>
@@ -5644,19 +5641,19 @@
         <v>35</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2">
         <v>100</v>
@@ -5687,19 +5684,19 @@
         <v>0</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2">
         <v>100</v>
@@ -5730,19 +5727,19 @@
         <v>35</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2">
         <v>100</v>
@@ -5773,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2">
         <v>100</v>
@@ -5816,19 +5813,19 @@
         <v>0</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2">
         <v>100</v>
@@ -5859,19 +5856,19 @@
         <v>35</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2">
         <v>100</v>
@@ -5902,19 +5899,19 @@
         <v>35</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2">
         <v>95</v>
@@ -5945,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2">
         <v>96</v>
@@ -5988,19 +5985,19 @@
         <v>40</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2">
         <v>95</v>
@@ -6031,19 +6028,19 @@
         <v>20</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S74" s="2"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2">
         <v>95</v>
@@ -6074,19 +6071,19 @@
         <v>0</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S75" s="2"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2">
         <v>94</v>
@@ -6117,22 +6114,22 @@
         <v>40</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S76" s="2"/>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77" s="2">
         <v>90</v>
@@ -6141,7 +6138,7 @@
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H77" s="2">
         <v>1</v>
@@ -6172,19 +6169,19 @@
         <v>0</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S77" s="2"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2">
         <v>80</v>
@@ -6193,7 +6190,7 @@
         <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H78" s="2">
         <v>1</v>
@@ -6224,19 +6221,19 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2">
         <v>90</v>
@@ -6245,7 +6242,7 @@
         <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -6276,19 +6273,19 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S79" s="2"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E80" s="2">
         <v>90</v>
@@ -6297,7 +6294,7 @@
         <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H80" s="2">
         <v>1</v>
@@ -6328,19 +6325,19 @@
         <v>0</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S80" s="2"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2">
         <v>90</v>
@@ -6349,7 +6346,7 @@
         <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" s="2">
         <v>1</v>
@@ -6380,19 +6377,19 @@
         <v>25</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S81" s="2"/>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2">
         <v>90</v>
@@ -6401,7 +6398,7 @@
         <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H82" s="2">
         <v>1</v>
@@ -6432,19 +6429,19 @@
         <v>0</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S82" s="2"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2">
         <v>90</v>
@@ -6453,7 +6450,7 @@
         <v>22</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
@@ -6484,19 +6481,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S83" s="2"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2">
         <v>90</v>
@@ -6505,7 +6502,7 @@
         <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
@@ -6536,19 +6533,19 @@
         <v>50</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S84" s="2"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2">
         <v>90</v>
@@ -6557,7 +6554,7 @@
         <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H85" s="2">
         <v>1</v>
@@ -6588,19 +6585,19 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S85" s="2"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2">
         <v>100</v>
@@ -6609,7 +6606,7 @@
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H86" s="2">
         <v>1</v>
@@ -6640,19 +6637,19 @@
         <v>0</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S86" s="2"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2">
         <v>100</v>
@@ -6661,7 +6658,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H87" s="2">
         <v>1</v>
@@ -6692,19 +6689,19 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S87" s="2"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2">
         <v>100</v>
@@ -6713,7 +6710,7 @@
         <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H88" s="2">
         <v>1</v>
@@ -6744,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S88" s="2"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2">
         <v>91</v>
@@ -6768,7 +6765,7 @@
         <v>23</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -6790,19 +6787,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S89" s="2"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2">
         <v>91</v>
@@ -6811,7 +6808,7 @@
         <v>23</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -6833,19 +6830,19 @@
         <v>0</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S90" s="2"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2">
         <v>91</v>
@@ -6854,7 +6851,7 @@
         <v>23</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -6876,19 +6873,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S91" s="2"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2">
         <v>91</v>
@@ -6897,7 +6894,7 @@
         <v>23</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -6919,19 +6916,19 @@
         <v>0</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S92" s="2"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2">
         <v>91</v>
@@ -6940,7 +6937,7 @@
         <v>23</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -6962,19 +6959,19 @@
         <v>0</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S93" s="2"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2">
         <v>91</v>
@@ -6983,7 +6980,7 @@
         <v>23</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -7005,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S94" s="2"/>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -7026,7 +7023,7 @@
         <v>23</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -7048,19 +7045,19 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S95" s="2"/>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2">
         <v>100</v>
@@ -7069,7 +7066,7 @@
         <v>23</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -7091,19 +7088,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S96" s="2"/>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2">
         <v>100</v>
@@ -7112,7 +7109,7 @@
         <v>23</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -7134,19 +7131,19 @@
         <v>0</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S97" s="2"/>
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E98" s="2">
         <v>91</v>
@@ -7155,7 +7152,7 @@
         <v>23</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -7177,19 +7174,19 @@
         <v>0</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S98" s="2"/>
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2">
         <v>91</v>
@@ -7198,7 +7195,7 @@
         <v>23</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -7220,19 +7217,19 @@
         <v>0</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S99" s="2"/>
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2">
         <v>95</v>
@@ -7241,7 +7238,7 @@
         <v>23</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -7263,19 +7260,19 @@
         <v>30</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S100" s="2"/>
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2">
         <v>95</v>
@@ -7284,7 +7281,7 @@
         <v>23</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -7306,19 +7303,19 @@
         <v>0</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S101" s="2"/>
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2">
         <v>91</v>
@@ -7327,7 +7324,7 @@
         <v>23</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -7349,19 +7346,19 @@
         <v>30</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S102" s="2"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2">
         <v>91</v>
@@ -7370,7 +7367,7 @@
         <v>23</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -7392,22 +7389,22 @@
         <v>0</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S103" s="2"/>
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" s="2">
         <v>90</v>
@@ -7416,7 +7413,7 @@
         <v>24</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H104" s="2">
         <v>1</v>
@@ -7447,19 +7444,19 @@
         <v>0</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S104" s="2"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E105" s="2">
         <v>100</v>
@@ -7468,7 +7465,7 @@
         <v>24</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H105" s="2">
         <v>1</v>
@@ -7499,19 +7496,19 @@
         <v>32</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S105" s="2"/>
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E106" s="2">
         <v>100</v>
@@ -7520,7 +7517,7 @@
         <v>24</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H106" s="2">
         <v>1</v>
@@ -7551,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S106" s="2"/>
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2">
         <v>100</v>
@@ -7572,7 +7569,7 @@
         <v>24</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H107" s="2">
         <v>1</v>
@@ -7603,22 +7600,22 @@
         <v>0</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S107" s="2"/>
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D108" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="2">
         <v>100</v>
@@ -7627,7 +7624,7 @@
         <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H108" s="2">
         <v>2</v>
@@ -7658,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S108" s="2">
         <v>1</v>
@@ -7666,13 +7663,13 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2">
         <v>100</v>
@@ -7681,7 +7678,7 @@
         <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H109" s="2">
         <v>2</v>
@@ -7712,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S109" s="2">
         <v>1</v>
@@ -7720,13 +7717,13 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2">
         <v>100</v>
@@ -7735,7 +7732,7 @@
         <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H110" s="2">
         <v>2</v>
@@ -7766,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S110" s="2">
         <v>1</v>
@@ -7774,13 +7771,13 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2">
         <v>100</v>
@@ -7789,7 +7786,7 @@
         <v>25</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H111" s="2">
         <v>2</v>
@@ -7820,7 +7817,7 @@
         <v>50</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S111" s="2">
         <v>0</v>
@@ -7828,13 +7825,13 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2">
         <v>100</v>
@@ -7843,7 +7840,7 @@
         <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H112" s="2">
         <v>2</v>
@@ -7874,19 +7871,19 @@
         <v>25</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S112" s="2"/>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" s="2">
         <v>100</v>
@@ -7895,7 +7892,7 @@
         <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H113" s="2">
         <v>2</v>
@@ -7926,19 +7923,19 @@
         <v>0</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S113" s="2"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2">
         <v>100</v>
@@ -7947,7 +7944,7 @@
         <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H114" s="2">
         <v>2</v>
@@ -7978,7 +7975,7 @@
         <v>25</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S114" s="2">
         <v>1</v>
@@ -7986,13 +7983,13 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E115" s="2">
         <v>100</v>
@@ -8001,7 +7998,7 @@
         <v>25</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H115" s="2">
         <v>2</v>
@@ -8032,7 +8029,7 @@
         <v>25</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S115" s="2">
         <v>1</v>
@@ -8040,13 +8037,13 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E116" s="2">
         <v>100</v>
@@ -8055,7 +8052,7 @@
         <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H116" s="2">
         <v>2</v>
@@ -8086,19 +8083,19 @@
         <v>25</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S116" s="2"/>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2">
         <v>100</v>
@@ -8107,7 +8104,7 @@
         <v>23</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H117" s="2">
         <v>2</v>
@@ -8138,19 +8135,19 @@
         <v>25</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2">
         <v>100</v>
@@ -8159,7 +8156,7 @@
         <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H118" s="2">
         <v>2</v>
@@ -8190,19 +8187,19 @@
         <v>0</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E119" s="2">
         <v>100</v>
@@ -8211,7 +8208,7 @@
         <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H119" s="2">
         <v>2</v>
@@ -8242,25 +8239,25 @@
         <v>0</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:19" ht="15">
       <c r="A120" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -8287,16 +8284,16 @@
     </row>
     <row r="121" spans="1:19" ht="15">
       <c r="B121" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -8323,16 +8320,16 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D122" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E122" s="2">
         <v>117</v>
@@ -8341,7 +8338,7 @@
         <v>29.8</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H122" s="2">
         <v>1</v>
@@ -8372,19 +8369,19 @@
         <v>0</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S122" s="2"/>
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2">
         <v>117</v>
@@ -8393,7 +8390,7 @@
         <v>29.8</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H123" s="2">
         <v>1</v>
@@ -8424,19 +8421,19 @@
         <v>0</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S123" s="2"/>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E124" s="2">
         <v>117</v>
@@ -8445,7 +8442,7 @@
         <v>29.8</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H124" s="2">
         <v>1</v>
@@ -8476,19 +8473,19 @@
         <v>0</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S124" s="2"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E125" s="2">
         <v>117</v>
@@ -8497,7 +8494,7 @@
         <v>29.8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H125" s="2">
         <v>1</v>
@@ -8528,19 +8525,19 @@
         <v>80</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S125" s="2"/>
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E126" s="2">
         <v>117</v>
@@ -8549,7 +8546,7 @@
         <v>29.8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H126" s="2">
         <v>1</v>
@@ -8580,19 +8577,19 @@
         <v>80</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S126" s="2"/>
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E127" s="2">
         <v>117</v>
@@ -8601,7 +8598,7 @@
         <v>29.8</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H127" s="2">
         <v>1</v>
@@ -8632,22 +8629,22 @@
         <v>0</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S127" s="2"/>
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D128" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E128" s="2">
         <v>120</v>
@@ -8656,7 +8653,7 @@
         <v>30</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -8678,19 +8675,19 @@
         <v>25</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S128" s="2"/>
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E129" s="2">
         <v>120</v>
@@ -8699,7 +8696,7 @@
         <v>30</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -8721,19 +8718,19 @@
         <v>25</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S129" s="2"/>
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2">
         <v>120</v>
@@ -8742,7 +8739,7 @@
         <v>30</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -8764,16 +8761,16 @@
         <v>25</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S130" s="2"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
@@ -8785,7 +8782,7 @@
         <v>30</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -8807,19 +8804,19 @@
         <v>0</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S131" s="2"/>
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E132" s="2">
         <v>120</v>
@@ -8828,7 +8825,7 @@
         <v>30</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -8850,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S132" s="2"/>
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E133" s="2">
         <v>120</v>
@@ -8871,7 +8868,7 @@
         <v>30</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -8893,19 +8890,19 @@
         <v>0</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S133" s="2"/>
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2">
         <v>120</v>
@@ -8914,7 +8911,7 @@
         <v>30</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -8936,19 +8933,19 @@
         <v>0</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S134" s="2"/>
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E135" s="2">
         <v>120</v>
@@ -8957,7 +8954,7 @@
         <v>30</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -8979,22 +8976,22 @@
         <v>0</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S135" s="2"/>
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E136" s="2">
         <v>100</v>
@@ -9003,7 +9000,7 @@
         <v>25</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H136" s="2">
         <v>1</v>
@@ -9034,19 +9031,19 @@
         <v>100</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S136" s="2"/>
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E137" s="2">
         <v>100</v>
@@ -9055,7 +9052,7 @@
         <v>25</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H137" s="2">
         <v>1</v>
@@ -9086,19 +9083,19 @@
         <v>0</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S137" s="2"/>
     </row>
     <row r="138" spans="1:19">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E138" s="2">
         <v>160</v>
@@ -9107,7 +9104,7 @@
         <v>40</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H138" s="2">
         <v>1</v>
@@ -9138,22 +9135,22 @@
         <v>0</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S138" s="2"/>
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139" s="2">
         <v>83</v>
@@ -9193,19 +9190,19 @@
         <v>0</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S139" s="2"/>
     </row>
     <row r="140" spans="1:19">
       <c r="A140" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E140" s="2">
         <v>250</v>
@@ -9245,19 +9242,19 @@
         <v>0</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S140" s="2"/>
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E141" s="2">
         <v>250</v>
@@ -9297,22 +9294,22 @@
         <v>0</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S141" s="2"/>
     </row>
     <row r="142" spans="1:19">
       <c r="A142" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E142" s="2">
         <v>110</v>
@@ -9321,7 +9318,7 @@
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -9343,7 +9340,7 @@
         <v>90</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S142" s="2">
         <v>0</v>
@@ -9351,13 +9348,13 @@
     </row>
     <row r="143" spans="1:19">
       <c r="A143" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E143" s="2">
         <v>110</v>
@@ -9366,7 +9363,7 @@
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -9388,19 +9385,19 @@
         <v>0</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S143" s="2"/>
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E144" s="2">
         <v>100</v>
@@ -9409,7 +9406,7 @@
         <v>23</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -9431,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S144" s="2">
         <v>1</v>
@@ -9439,13 +9436,13 @@
     </row>
     <row r="145" spans="1:19">
       <c r="A145" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E145" s="2">
         <v>145</v>
@@ -9454,7 +9451,7 @@
         <v>12</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -9476,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S145" s="2">
         <v>3</v>
@@ -9484,13 +9481,13 @@
     </row>
     <row r="146" spans="1:19">
       <c r="A146" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E146" s="2">
         <v>150</v>
@@ -9499,7 +9496,7 @@
         <v>12</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -9521,7 +9518,7 @@
         <v>90</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S146" s="2">
         <v>3</v>
@@ -9529,13 +9526,13 @@
     </row>
     <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147" s="2">
         <v>150</v>
@@ -9544,7 +9541,7 @@
         <v>12</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -9566,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S147" s="2">
         <v>5</v>
@@ -9574,13 +9571,13 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E148" s="2">
         <v>150</v>
@@ -9589,7 +9586,7 @@
         <v>12</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -9611,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S148" s="2">
         <v>5</v>
@@ -9619,13 +9616,13 @@
     </row>
     <row r="149" spans="1:19">
       <c r="A149" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E149" s="2">
         <v>145</v>
@@ -9634,7 +9631,7 @@
         <v>12</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -9656,7 +9653,7 @@
         <v>90</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S149" s="2">
         <v>3</v>
@@ -9664,13 +9661,13 @@
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B150" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="E150" s="2">
         <v>106</v>
@@ -9679,7 +9676,7 @@
         <v>19</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -9701,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S150" s="2">
         <v>0</v>
@@ -9709,13 +9706,13 @@
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E151" s="2">
         <v>105</v>
@@ -9724,7 +9721,7 @@
         <v>21</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -9746,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S151" s="2">
         <v>0</v>
@@ -9754,16 +9751,16 @@
     </row>
     <row r="152" spans="1:19">
       <c r="A152" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="D152" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2">
         <v>82</v>
@@ -9794,19 +9791,19 @@
         <v>0</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:19">
       <c r="A153" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E153" s="2">
         <v>82</v>
@@ -9837,19 +9834,19 @@
         <v>0</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2">
         <v>82</v>
@@ -9880,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S154" s="2"/>
     </row>
     <row r="155" spans="1:19">
       <c r="A155" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
@@ -9923,19 +9920,19 @@
         <v>0</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:19">
       <c r="A156" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E156" s="2">
         <v>81</v>
@@ -9966,19 +9963,19 @@
         <v>100</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S156" s="2"/>
     </row>
     <row r="157" spans="1:19">
       <c r="A157" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E157" s="2">
         <v>160</v>
@@ -10009,19 +10006,19 @@
         <v>0</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S157" s="2"/>
     </row>
     <row r="158" spans="1:19">
       <c r="A158" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E158" s="2">
         <v>160</v>
@@ -10052,19 +10049,19 @@
         <v>0</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:19">
       <c r="A159" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2">
         <v>160</v>
@@ -10095,22 +10092,22 @@
         <v>0</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D160" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E160" s="2">
         <v>104</v>
@@ -10150,19 +10147,19 @@
         <v>0</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2">
         <v>121</v>
@@ -10202,19 +10199,19 @@
         <v>53</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E162" s="2">
         <v>103</v>
@@ -10254,19 +10251,19 @@
         <v>50</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E163" s="2">
         <v>103</v>
@@ -10306,19 +10303,19 @@
         <v>0</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E164" s="2">
         <v>100</v>
@@ -10358,19 +10355,19 @@
         <v>50</v>
       </c>
       <c r="Q164" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S164" s="2"/>
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E165" s="2">
         <v>103</v>
@@ -10379,7 +10376,7 @@
         <v>26</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H165" s="2">
         <v>2</v>
@@ -10410,19 +10407,19 @@
         <v>0</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S165" s="2"/>
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E166" s="2">
         <v>103</v>
@@ -10462,19 +10459,19 @@
         <v>0</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S166" s="2"/>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E167" s="2">
         <v>104</v>
@@ -10514,19 +10511,19 @@
         <v>0</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S167" s="2"/>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E168" s="2">
         <v>103</v>
@@ -10566,19 +10563,19 @@
         <v>0</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S168" s="2"/>
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E169" s="2">
         <v>103</v>
@@ -10618,19 +10615,19 @@
         <v>51</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E170" s="2">
         <v>108</v>
@@ -10670,19 +10667,19 @@
         <v>51</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S170" s="2"/>
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E171" s="2">
         <v>103</v>
@@ -10722,16 +10719,16 @@
         <v>100</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S171" s="2"/>
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -10774,19 +10771,19 @@
         <v>0</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S172" s="2"/>
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E173" s="2">
         <v>121</v>
@@ -10826,22 +10823,22 @@
         <v>100</v>
       </c>
       <c r="Q173" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S173" s="2"/>
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D174" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E174" s="2">
         <v>120</v>
@@ -10881,19 +10878,19 @@
         <v>0</v>
       </c>
       <c r="Q174" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S174" s="2"/>
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E175" s="2">
         <v>120</v>
@@ -10933,19 +10930,19 @@
         <v>100</v>
       </c>
       <c r="Q175" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S175" s="2"/>
     </row>
     <row r="176" spans="1:19">
       <c r="A176" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E176" s="2">
         <v>360</v>
@@ -10985,22 +10982,22 @@
         <v>0</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S176" s="2"/>
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D177" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E177" s="2">
         <v>125</v>
@@ -11009,7 +11006,7 @@
         <v>30</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H177" s="2">
         <v>1</v>
@@ -11040,19 +11037,19 @@
         <v>0</v>
       </c>
       <c r="Q177" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S177" s="2"/>
     </row>
     <row r="178" spans="1:19">
       <c r="A178" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E178" s="2">
         <v>125</v>
@@ -11061,7 +11058,7 @@
         <v>30</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H178" s="2">
         <v>1</v>
@@ -11092,19 +11089,19 @@
         <v>0</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S178" s="2"/>
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E179" s="2">
         <v>125</v>
@@ -11113,7 +11110,7 @@
         <v>30</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H179" s="2">
         <v>1</v>
@@ -11144,16 +11141,16 @@
         <v>0</v>
       </c>
       <c r="Q179" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S179" s="2"/>
     </row>
     <row r="180" spans="1:19">
       <c r="A180" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
@@ -11165,7 +11162,7 @@
         <v>30</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H180" s="2">
         <v>1</v>
@@ -11196,19 +11193,19 @@
         <v>100</v>
       </c>
       <c r="Q180" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S180" s="2"/>
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E181" s="2">
         <v>126</v>
@@ -11217,7 +11214,7 @@
         <v>30</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H181" s="2">
         <v>1</v>
@@ -11248,19 +11245,19 @@
         <v>100</v>
       </c>
       <c r="Q181" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S181" s="2"/>
     </row>
     <row r="182" spans="1:19">
       <c r="A182" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E182" s="2">
         <v>126</v>
@@ -11269,7 +11266,7 @@
         <v>30</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H182" s="2">
         <v>1</v>
@@ -11300,16 +11297,16 @@
         <v>100</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S182" s="2"/>
     </row>
     <row r="183" spans="1:19">
       <c r="A183" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -11321,7 +11318,7 @@
         <v>60</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H183" s="2">
         <v>1</v>
@@ -11352,19 +11349,19 @@
         <v>0</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S183" s="2"/>
     </row>
     <row r="184" spans="1:19">
       <c r="A184" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E184" s="2">
         <v>181</v>
@@ -11373,7 +11370,7 @@
         <v>45</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H184" s="2">
         <v>1</v>
@@ -11404,19 +11401,19 @@
         <v>100</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S184" s="2"/>
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E185" s="2">
         <v>181</v>
@@ -11425,7 +11422,7 @@
         <v>45</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H185" s="2">
         <v>1</v>
@@ -11456,22 +11453,22 @@
         <v>100</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S185" s="2"/>
     </row>
     <row r="186" spans="1:19">
       <c r="A186" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E186" s="2">
         <v>158</v>
@@ -11511,19 +11508,19 @@
         <v>0</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S186" s="2"/>
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E187" s="2">
         <v>158</v>
@@ -11563,19 +11560,19 @@
         <v>0</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S187" s="2"/>
     </row>
     <row r="188" spans="1:19">
       <c r="A188" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E188" s="2">
         <v>160</v>
@@ -11615,22 +11612,22 @@
         <v>0</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S188" s="2"/>
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="D189" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E189" s="2">
         <v>87</v>
@@ -11639,7 +11636,7 @@
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2">
@@ -11668,19 +11665,19 @@
         <v>0</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S189" s="2"/>
     </row>
     <row r="190" spans="1:19">
       <c r="A190" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="6">
@@ -11690,7 +11687,7 @@
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
@@ -11712,20 +11709,20 @@
         <v>0</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R190" s="6"/>
       <c r="S190" s="6"/>
     </row>
     <row r="191" spans="1:19">
       <c r="A191" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E191" s="2">
         <v>87</v>
@@ -11734,7 +11731,7 @@
         <v>22</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -11756,19 +11753,19 @@
         <v>0</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S191" s="2"/>
     </row>
     <row r="192" spans="1:19">
       <c r="A192" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E192" s="2">
         <v>87</v>
@@ -11777,7 +11774,7 @@
         <v>22</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -11799,19 +11796,19 @@
         <v>0</v>
       </c>
       <c r="Q192" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S192" s="2"/>
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193" s="2">
         <v>87</v>
@@ -11820,7 +11817,7 @@
         <v>22</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -11842,19 +11839,19 @@
         <v>0</v>
       </c>
       <c r="Q193" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S193" s="2"/>
     </row>
     <row r="194" spans="1:19">
       <c r="A194" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E194" s="2">
         <v>87</v>
@@ -11863,7 +11860,7 @@
         <v>22</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -11885,19 +11882,19 @@
         <v>0</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S194" s="2"/>
     </row>
     <row r="195" spans="1:19">
       <c r="A195" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E195" s="2">
         <v>87</v>
@@ -11906,7 +11903,7 @@
         <v>22</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -11928,22 +11925,22 @@
         <v>0</v>
       </c>
       <c r="Q195" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S195" s="2"/>
     </row>
     <row r="196" spans="1:19">
       <c r="A196" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E196" s="6">
         <v>158</v>
@@ -11983,20 +11980,20 @@
         <v>200</v>
       </c>
       <c r="Q196" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R196" s="6"/>
       <c r="S196" s="6"/>
     </row>
     <row r="197" spans="1:19">
       <c r="A197" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="6">
@@ -12037,23 +12034,23 @@
         <v>200</v>
       </c>
       <c r="Q197" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R197" s="6"/>
       <c r="S197" s="6"/>
     </row>
     <row r="198" spans="1:19">
       <c r="A198" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="D198" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E198" s="6">
         <v>87</v>
@@ -12062,7 +12059,7 @@
         <v>22</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
@@ -12084,20 +12081,20 @@
         <v>150</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R198" s="6"/>
       <c r="S198" s="6"/>
     </row>
     <row r="199" spans="1:19">
       <c r="A199" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="6">
@@ -12107,7 +12104,7 @@
         <v>21</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
@@ -12134,13 +12131,13 @@
     </row>
     <row r="200" spans="1:19">
       <c r="A200" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="6">
@@ -12150,7 +12147,7 @@
         <v>22</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
@@ -12177,16 +12174,16 @@
     </row>
     <row r="201" spans="1:19">
       <c r="A201" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="D201" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E201" s="2">
         <v>128</v>
@@ -12226,19 +12223,19 @@
         <v>0</v>
       </c>
       <c r="Q201" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S201" s="2"/>
     </row>
     <row r="202" spans="1:19">
       <c r="A202" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E202" s="2">
         <v>147</v>
@@ -12278,19 +12275,19 @@
         <v>0</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S202" s="2"/>
     </row>
     <row r="203" spans="1:19">
       <c r="A203" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E203" s="2">
         <v>128</v>
@@ -12330,19 +12327,19 @@
         <v>150</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S203" s="2"/>
     </row>
     <row r="204" spans="1:19">
       <c r="A204" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E204" s="2">
         <v>201</v>
@@ -12382,19 +12379,19 @@
         <v>0</v>
       </c>
       <c r="Q204" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S204" s="2"/>
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E205" s="2">
         <v>200</v>
@@ -12434,22 +12431,22 @@
         <v>0</v>
       </c>
       <c r="Q205" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S205" s="2"/>
     </row>
     <row r="206" spans="1:19">
       <c r="A206" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D206" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E206" s="2">
         <v>113</v>
@@ -12489,19 +12486,19 @@
         <v>0</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S206" s="2"/>
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E207" s="2">
         <v>114</v>
@@ -12541,19 +12538,19 @@
         <v>0</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S207" s="2"/>
     </row>
     <row r="208" spans="1:19">
       <c r="A208" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E208" s="2">
         <v>114</v>
@@ -12593,19 +12590,19 @@
         <v>0</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S208" s="2"/>
     </row>
     <row r="209" spans="1:19">
       <c r="A209" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E209" s="2">
         <v>110</v>
@@ -12645,19 +12642,19 @@
         <v>0</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S209" s="2"/>
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E210" s="2">
         <v>110</v>
@@ -12697,19 +12694,19 @@
         <v>0</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S210" s="2"/>
     </row>
     <row r="211" spans="1:19">
       <c r="A211" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E211" s="2">
         <v>110</v>
@@ -12749,19 +12746,19 @@
         <v>0</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S211" s="2"/>
     </row>
     <row r="212" spans="1:19">
       <c r="A212" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E212" s="2">
         <v>110</v>
@@ -12801,19 +12798,19 @@
         <v>89</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S212" s="2"/>
     </row>
     <row r="213" spans="1:19">
       <c r="A213" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E213" s="2">
         <v>114</v>
@@ -12853,16 +12850,16 @@
         <v>89</v>
       </c>
       <c r="Q213" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S213" s="2"/>
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>13</v>
@@ -12905,19 +12902,19 @@
         <v>89</v>
       </c>
       <c r="Q214" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S214" s="2"/>
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E215" s="2">
         <v>113</v>
@@ -12957,19 +12954,19 @@
         <v>0</v>
       </c>
       <c r="Q215" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S215" s="2"/>
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E216" s="2">
         <v>114</v>
@@ -13009,19 +13006,19 @@
         <v>0</v>
       </c>
       <c r="Q216" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S216" s="2"/>
     </row>
     <row r="217" spans="1:19">
       <c r="A217" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E217" s="2">
         <v>113</v>
@@ -13061,19 +13058,19 @@
         <v>89</v>
       </c>
       <c r="Q217" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S217" s="2"/>
     </row>
     <row r="218" spans="1:19">
       <c r="A218" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E218" s="2">
         <v>110</v>
@@ -13113,22 +13110,22 @@
         <v>0</v>
       </c>
       <c r="Q218" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S218" s="2"/>
     </row>
     <row r="219" spans="1:19">
       <c r="A219" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E219" s="2">
         <v>80</v>
@@ -13137,7 +13134,7 @@
         <v>20</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -13159,19 +13156,19 @@
         <v>0</v>
       </c>
       <c r="Q219" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S219" s="2"/>
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E220" s="2">
         <v>70</v>
@@ -13180,7 +13177,7 @@
         <v>19</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -13202,19 +13199,19 @@
         <v>0</v>
       </c>
       <c r="Q220" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S220" s="2"/>
     </row>
     <row r="221" spans="1:19">
       <c r="A221" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E221" s="2">
         <v>70</v>
@@ -13223,7 +13220,7 @@
         <v>19</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -13245,22 +13242,22 @@
         <v>0</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S221" s="2"/>
     </row>
     <row r="222" spans="1:19">
       <c r="A222" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D222" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E222" s="2">
         <v>100</v>
@@ -13269,7 +13266,7 @@
         <v>26</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -13291,19 +13288,19 @@
         <v>0</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S222" s="2"/>
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E223" s="2">
         <v>100</v>
@@ -13312,7 +13309,7 @@
         <v>26</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -13334,19 +13331,19 @@
         <v>27</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S223" s="2"/>
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E224" s="2">
         <v>100</v>
@@ -13355,7 +13352,7 @@
         <v>26</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -13377,19 +13374,19 @@
         <v>0</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S224" s="2"/>
     </row>
     <row r="225" spans="1:19">
       <c r="A225" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E225" s="2">
         <v>100</v>
@@ -13398,7 +13395,7 @@
         <v>26</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -13420,19 +13417,19 @@
         <v>0</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S225" s="2"/>
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E226" s="2">
         <v>100</v>
@@ -13441,7 +13438,7 @@
         <v>26</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -13463,19 +13460,19 @@
         <v>0</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S226" s="2"/>
     </row>
     <row r="227" spans="1:19">
       <c r="A227" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E227" s="2">
         <v>89</v>
@@ -13484,7 +13481,7 @@
         <v>22</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -13509,13 +13506,13 @@
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E228" s="2">
         <v>90</v>
@@ -13524,7 +13521,7 @@
         <v>22</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -13549,13 +13546,13 @@
     </row>
     <row r="229" spans="1:19">
       <c r="A229" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E229" s="2">
         <v>89</v>
@@ -13564,7 +13561,7 @@
         <v>22</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -13589,13 +13586,13 @@
     </row>
     <row r="230" spans="1:19">
       <c r="A230" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E230" s="2">
         <v>88</v>
@@ -13604,7 +13601,7 @@
         <v>22</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -13629,13 +13626,13 @@
     </row>
     <row r="231" spans="1:19">
       <c r="A231" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E231" s="2">
         <v>89</v>
@@ -13644,7 +13641,7 @@
         <v>22</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -13669,10 +13666,10 @@
     </row>
     <row r="232" spans="1:19">
       <c r="A232" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -13684,7 +13681,7 @@
         <v>45</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -13706,22 +13703,22 @@
         <v>0</v>
       </c>
       <c r="Q232" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S232" s="2"/>
     </row>
     <row r="233" spans="1:19">
       <c r="A233" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E233" s="2">
         <v>180</v>
@@ -13730,7 +13727,7 @@
         <v>45</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
@@ -13752,22 +13749,22 @@
         <v>0</v>
       </c>
       <c r="Q233" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S233" s="2"/>
     </row>
     <row r="234" spans="1:19">
       <c r="A234" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E234" s="2">
         <v>115</v>
@@ -13798,19 +13795,19 @@
         <v>50</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S234" s="2"/>
     </row>
     <row r="235" spans="1:19">
       <c r="A235" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B235" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E235" s="2">
         <v>115</v>
@@ -13841,19 +13838,19 @@
         <v>0</v>
       </c>
       <c r="Q235" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S235" s="2"/>
     </row>
     <row r="236" spans="1:19">
       <c r="A236" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E236" s="2">
         <v>115</v>
@@ -13884,19 +13881,19 @@
         <v>0</v>
       </c>
       <c r="Q236" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S236" s="2"/>
     </row>
     <row r="237" spans="1:19">
       <c r="A237" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E237" s="2">
         <v>115</v>
@@ -13927,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="Q237" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S237" s="2"/>
     </row>

--- a/Energygels.xlsx
+++ b/Energygels.xlsx
@@ -1573,7 +1573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="240">
+  <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1814,6 +1814,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1843,7 +1849,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="240">
+  <cellStyles count="246">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1971,6 +1977,9 @@
     <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2075,6 +2084,9 @@
     <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2356,7 +2368,7 @@
   <dimension ref="A1:S238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
